--- a/data/industry_sectors_constrained.xlsx
+++ b/data/industry_sectors_constrained.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/1Evan/.eff_fron_spyder/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6113f60f932799a7/1Evan/.efficient_frontier/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{1E32A5FC-D97B-4C51-B2E8-B46C6AA21334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E12CFD7A-A00E-4733-8F7A-8FAF16E5EBDB}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{1E32A5FC-D97B-4C51-B2E8-B46C6AA21334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8396FD2-3341-414D-A795-593D1E765AD8}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25560" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Investments" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,10 +512,7 @@
       <c r="C2" s="7">
         <v>1</v>
       </c>
-      <c r="D2" s="7">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -527,10 +524,7 @@
       <c r="C3" s="7">
         <v>0.2</v>
       </c>
-      <c r="D3" s="7">
-        <f t="shared" ref="D3:D13" si="0">1/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -542,10 +536,7 @@
       <c r="C4" s="7">
         <v>0.2</v>
       </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -557,10 +548,7 @@
       <c r="C5" s="7">
         <v>0.2</v>
       </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -572,10 +560,7 @@
       <c r="C6" s="7">
         <v>0.2</v>
       </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -587,10 +572,7 @@
       <c r="C7" s="7">
         <v>0.2</v>
       </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -602,10 +584,7 @@
       <c r="C8" s="7">
         <v>0.2</v>
       </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -617,10 +596,7 @@
       <c r="C9" s="7">
         <v>0.2</v>
       </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -632,10 +608,7 @@
       <c r="C10" s="7">
         <v>0.2</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -647,10 +620,7 @@
       <c r="C11" s="7">
         <v>0.2</v>
       </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -662,10 +632,7 @@
       <c r="C12" s="7">
         <v>0.2</v>
       </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -677,10 +644,7 @@
       <c r="C13" s="7">
         <v>0.2</v>
       </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="D13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
